--- a/xlsx/country_comparison/support_likert_plus_share.xlsx
+++ b/xlsx/country_comparison/support_likert_plus_share.xlsx
@@ -445,16 +445,16 @@
         <v>0.757320866764204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.790838302049663</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.714184300632022</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.821162322917585</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.73482067298493</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
     <row r="3">
@@ -468,16 +468,16 @@
         <v>0.853956784923197</v>
       </c>
       <c r="D3" t="n">
-        <v>0.777690710475178</v>
+        <v>0.806229028625166</v>
       </c>
       <c r="E3" t="n">
-        <v>0.87606769541308</v>
+        <v>0.866481501161303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.897019358482838</v>
+        <v>0.889136842270953</v>
       </c>
       <c r="G3" t="n">
-        <v>0.867058816593815</v>
+        <v>0.883231205569104</v>
       </c>
     </row>
     <row r="4">
@@ -491,16 +491,16 @@
         <v>0.839351652890108</v>
       </c>
       <c r="D4" t="n">
-        <v>0.818086684911697</v>
+        <v>0.839403543928279</v>
       </c>
       <c r="E4" t="n">
-        <v>0.850964161307245</v>
+        <v>0.844357414213475</v>
       </c>
       <c r="F4" t="n">
-        <v>0.883522222438835</v>
+        <v>0.8731859020194</v>
       </c>
       <c r="G4" t="n">
-        <v>0.812221448236291</v>
+        <v>0.833943523324582</v>
       </c>
     </row>
     <row r="5">
@@ -514,16 +514,16 @@
         <v>0.535405079823794</v>
       </c>
       <c r="D5" t="n">
-        <v>0.538551552740021</v>
+        <v>0.53495530999455</v>
       </c>
       <c r="E5" t="n">
-        <v>0.502505686573289</v>
+        <v>0.504405401186565</v>
       </c>
       <c r="F5" t="n">
-        <v>0.591198927333023</v>
+        <v>0.57374820373221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.531688136181946</v>
+        <v>0.54094700051697</v>
       </c>
     </row>
     <row r="6">
@@ -537,16 +537,16 @@
         <v>0.764763757253406</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75896157725486</v>
+        <v>0.768792763691463</v>
       </c>
       <c r="E6" t="n">
-        <v>0.788584357448869</v>
+        <v>0.787427489951403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.802947787926116</v>
+        <v>0.793533860250774</v>
       </c>
       <c r="G6" t="n">
-        <v>0.711382317233868</v>
+        <v>0.713804625162365</v>
       </c>
     </row>
     <row r="7">
@@ -560,16 +560,16 @@
         <v>0.819558096525353</v>
       </c>
       <c r="D7" t="n">
-        <v>0.807836092347318</v>
+        <v>0.820875807741039</v>
       </c>
       <c r="E7" t="n">
-        <v>0.818474382042093</v>
+        <v>0.816184257428338</v>
       </c>
       <c r="F7" t="n">
-        <v>0.866535501159571</v>
+        <v>0.853647571464666</v>
       </c>
       <c r="G7" t="n">
-        <v>0.796926639678745</v>
+        <v>0.805326640783647</v>
       </c>
     </row>
     <row r="8">
@@ -583,16 +583,16 @@
         <v>0.714657631857914</v>
       </c>
       <c r="D8" t="n">
-        <v>0.705915321888678</v>
+        <v>0.717102495286766</v>
       </c>
       <c r="E8" t="n">
-        <v>0.692108967732598</v>
+        <v>0.696388097239499</v>
       </c>
       <c r="F8" t="n">
-        <v>0.810743956112248</v>
+        <v>0.789812073785779</v>
       </c>
       <c r="G8" t="n">
-        <v>0.678632498826316</v>
+        <v>0.700061649480014</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         <v>0.526932121926889</v>
       </c>
       <c r="D9" t="n">
-        <v>0.519291945265178</v>
+        <v>0.531625298077304</v>
       </c>
       <c r="E9" t="n">
-        <v>0.430090134628628</v>
+        <v>0.4266715014713</v>
       </c>
       <c r="F9" t="n">
-        <v>0.621398664168368</v>
+        <v>0.621747780137294</v>
       </c>
       <c r="G9" t="n">
-        <v>0.589538995987446</v>
+        <v>0.610464530962768</v>
       </c>
     </row>
     <row r="10">
@@ -629,16 +629,16 @@
         <v>0.705292862203935</v>
       </c>
       <c r="D10" t="n">
-        <v>0.665516149477931</v>
+        <v>0.686053015963702</v>
       </c>
       <c r="E10" t="n">
-        <v>0.699306300857086</v>
+        <v>0.693093107414932</v>
       </c>
       <c r="F10" t="n">
-        <v>0.776810767922621</v>
+        <v>0.780834273861822</v>
       </c>
       <c r="G10" t="n">
-        <v>0.696808795686438</v>
+        <v>0.715384966230052</v>
       </c>
     </row>
     <row r="11">
@@ -652,16 +652,16 @@
         <v>0.730504661209951</v>
       </c>
       <c r="D11" t="n">
-        <v>0.584103351294321</v>
+        <v>0.581791432777007</v>
       </c>
       <c r="E11" t="n">
-        <v>0.72794731193383</v>
+        <v>0.730462131450109</v>
       </c>
       <c r="F11" t="n">
-        <v>0.798719445723918</v>
+        <v>0.797897393781628</v>
       </c>
       <c r="G11" t="n">
-        <v>0.830675078842851</v>
+        <v>0.831944699227053</v>
       </c>
     </row>
     <row r="12">
@@ -675,16 +675,16 @@
         <v>0.795531688544377</v>
       </c>
       <c r="D12" t="n">
-        <v>0.777536257319013</v>
+        <v>0.797422504232579</v>
       </c>
       <c r="E12" t="n">
-        <v>0.791558595174417</v>
+        <v>0.78358915943845</v>
       </c>
       <c r="F12" t="n">
-        <v>0.81194220331565</v>
+        <v>0.811669808071969</v>
       </c>
       <c r="G12" t="n">
-        <v>0.805915035245188</v>
+        <v>0.827928985628416</v>
       </c>
     </row>
     <row r="13">
@@ -698,16 +698,16 @@
         <v>0.874801725484302</v>
       </c>
       <c r="D13" t="n">
-        <v>0.883178638393705</v>
+        <v>0.895913525729749</v>
       </c>
       <c r="E13" t="n">
-        <v>0.852062400678577</v>
+        <v>0.857097803370111</v>
       </c>
       <c r="F13" t="n">
-        <v>0.917219547874834</v>
+        <v>0.91274070312304</v>
       </c>
       <c r="G13" t="n">
-        <v>0.865289913285337</v>
+        <v>0.868122871586071</v>
       </c>
     </row>
     <row r="14">
@@ -721,16 +721,16 @@
         <v>0.621065025534817</v>
       </c>
       <c r="D14" t="n">
-        <v>0.571396312196455</v>
+        <v>0.581434341080065</v>
       </c>
       <c r="E14" t="n">
-        <v>0.616132831526739</v>
+        <v>0.621313531546367</v>
       </c>
       <c r="F14" t="n">
-        <v>0.647141460252098</v>
+        <v>0.648735078584288</v>
       </c>
       <c r="G14" t="n">
-        <v>0.65456453302815</v>
+        <v>0.667407611854691</v>
       </c>
     </row>
   </sheetData>
